--- a/result/with_base/123/arousal/s13_1.xlsx
+++ b/result/with_base/123/arousal/s13_1.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.8449999988079071</v>
+        <v>0.8727678656578064</v>
       </c>
       <c r="C2" t="n">
-        <v>41708.64453125</v>
+        <v>11271.9052734375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8546590913425792</v>
+        <v>0.855042015804964</v>
       </c>
       <c r="E2" t="n">
-        <v>41716.81818181818</v>
+        <v>11274.35098805147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9000000059604645</v>
+        <v>0.890625</v>
       </c>
       <c r="C3" t="n">
-        <v>40935.705078125</v>
+        <v>10956.10546875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8811363632028754</v>
+        <v>0.8799238450386945</v>
       </c>
       <c r="E3" t="n">
-        <v>40935.97975852273</v>
+        <v>10957.41343060662</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9350000023841858</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C4" t="n">
-        <v>40164.4453125</v>
+        <v>10647.67041015625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9111363671042703</v>
+        <v>0.9087447489009184</v>
       </c>
       <c r="E4" t="n">
-        <v>40165.48899147727</v>
+        <v>10648.44703584559</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9449999928474426</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C5" t="n">
-        <v>39401.544921875</v>
+        <v>10346.40234375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9440909028053284</v>
+        <v>0.9243697489009184</v>
       </c>
       <c r="E5" t="n">
-        <v>39402.01988636364</v>
+        <v>10346.61609604779</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.94140625</v>
       </c>
       <c r="C6" t="n">
-        <v>38651.42578125</v>
+        <v>10051.93408203125</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9517045346173373</v>
+        <v>0.9478072489009184</v>
       </c>
       <c r="E6" t="n">
-        <v>38651.51420454546</v>
+        <v>10051.90768612132</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9375</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C7" t="n">
-        <v>37911.365234375</v>
+        <v>9765.26171875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9632954543287103</v>
+        <v>0.9494485294117647</v>
       </c>
       <c r="E7" t="n">
-        <v>37911.37571022727</v>
+        <v>9764.918658088236</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9458705484867096</v>
       </c>
       <c r="C8" t="n">
-        <v>37183.58203125</v>
+        <v>9485.31005859375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9664772803133185</v>
+        <v>0.9485294117647058</v>
       </c>
       <c r="E8" t="n">
-        <v>37183.05149147727</v>
+        <v>9485.281537224264</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C9" t="n">
-        <v>36467.205078125</v>
+        <v>9212.65283203125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9706818244673989</v>
+        <v>0.9359900215092827</v>
       </c>
       <c r="E9" t="n">
-        <v>36466.97869318182</v>
+        <v>9212.52303538603</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9375</v>
       </c>
       <c r="C10" t="n">
-        <v>35763.470703125</v>
+        <v>8946.78955078125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9703409129923041</v>
+        <v>0.9663865531192106</v>
       </c>
       <c r="E10" t="n">
-        <v>35762.40944602273</v>
+        <v>8946.27969898897</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C11" t="n">
-        <v>35070.810546875</v>
+        <v>8687.70166015625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9747727296569131</v>
+        <v>0.9536502115866717</v>
       </c>
       <c r="E11" t="n">
-        <v>35070.34339488636</v>
+        <v>8687.509133731617</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9363839328289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34390.73828125</v>
+        <v>8435.65185546875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9763636480678212</v>
+        <v>0.9363839275696698</v>
       </c>
       <c r="E12" t="n">
-        <v>34390.15660511364</v>
+        <v>8435.570772058823</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C13" t="n">
-        <v>33722.34375</v>
+        <v>8190.04736328125</v>
       </c>
       <c r="D13" t="n">
-        <v>0.985113647851077</v>
+        <v>0.9430803586454952</v>
       </c>
       <c r="E13" t="n">
-        <v>33722.16051136364</v>
+        <v>8189.691233915441</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9587053656578064</v>
       </c>
       <c r="C14" t="n">
-        <v>33066.40625</v>
+        <v>7950.70068359375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9857954653826627</v>
+        <v>0.9753807783126831</v>
       </c>
       <c r="E14" t="n">
-        <v>33066.24857954546</v>
+        <v>7950.235581341912</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C15" t="n">
-        <v>32423.26171875</v>
+        <v>7717.786376953125</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9804545532573353</v>
+        <v>0.9856880237074459</v>
       </c>
       <c r="E15" t="n">
-        <v>32422.48011363636</v>
+        <v>7717.303739659927</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C16" t="n">
-        <v>31790.6630859375</v>
+        <v>7491.070068359375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9778755237074459</v>
       </c>
       <c r="E16" t="n">
-        <v>31790.03675426136</v>
+        <v>7490.73583984375</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C17" t="n">
-        <v>31169.4638671875</v>
+        <v>7270.589599609375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9889772805300626</v>
+        <v>0.9828650215092827</v>
       </c>
       <c r="E17" t="n">
-        <v>31169.154296875</v>
+        <v>7270.214384191177</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C18" t="n">
-        <v>30560.8388671875</v>
+        <v>7056</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9800000136548822</v>
+        <v>0.9709821413545048</v>
       </c>
       <c r="E18" t="n">
-        <v>30559.90980113636</v>
+        <v>7055.679744944853</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9592633843421936</v>
       </c>
       <c r="C19" t="n">
-        <v>29961.9384765625</v>
+        <v>6847.25048828125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9926136406985197</v>
+        <v>0.9625787805108463</v>
       </c>
       <c r="E19" t="n">
-        <v>29961.49058948864</v>
+        <v>6846.935259650735</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C20" t="n">
-        <v>29374.9677734375</v>
+        <v>6644.0927734375</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9893181920051575</v>
+        <v>0.964417015804964</v>
       </c>
       <c r="E20" t="n">
-        <v>29374.23348721591</v>
+        <v>6643.746409696691</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C21" t="n">
-        <v>28798.33203125</v>
+        <v>6446.329345703125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9787289920975181</v>
       </c>
       <c r="E21" t="n">
-        <v>28797.77858664773</v>
+        <v>6446.012867647059</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9637276828289032</v>
       </c>
       <c r="C22" t="n">
-        <v>28232.400390625</v>
+        <v>6254.115234375</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9713103981579051</v>
       </c>
       <c r="E22" t="n">
-        <v>28232.1015625</v>
+        <v>6253.775591681985</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9799999892711639</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C23" t="n">
-        <v>27677.26953125</v>
+        <v>6067.120361328125</v>
       </c>
       <c r="D23" t="n">
-        <v>0.994772732257843</v>
+        <v>0.9775472704102012</v>
       </c>
       <c r="E23" t="n">
-        <v>27676.85706676136</v>
+        <v>6066.811839384191</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9637276828289032</v>
       </c>
       <c r="C24" t="n">
-        <v>27132.201171875</v>
+        <v>5885.170654296875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9962500008669767</v>
+        <v>0.9862132352941176</v>
       </c>
       <c r="E24" t="n">
-        <v>27131.84889914773</v>
+        <v>5884.910989200368</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C25" t="n">
-        <v>26597.52734375</v>
+        <v>5708.44482421875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9870010509210474</v>
       </c>
       <c r="E25" t="n">
-        <v>26597.06072443182</v>
+        <v>5708.097857306985</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C26" t="n">
-        <v>26072.6591796875</v>
+        <v>5536.432861328125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9944318207827482</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E26" t="n">
-        <v>26072.34623579546</v>
+        <v>5536.13338694853</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C27" t="n">
-        <v>25557.5185546875</v>
+        <v>5369.15185546875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9929753156269298</v>
       </c>
       <c r="E27" t="n">
-        <v>25557.21129261364</v>
+        <v>5368.8935546875</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C28" t="n">
-        <v>25052.2080078125</v>
+        <v>5206.618408203125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E28" t="n">
-        <v>25051.76917613636</v>
+        <v>5206.306812959559</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C29" t="n">
-        <v>24556.095703125</v>
+        <v>5048.514892578125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9847032568034004</v>
       </c>
       <c r="E29" t="n">
-        <v>24555.77095170454</v>
+        <v>5048.273983226103</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C30" t="n">
-        <v>24069.265625</v>
+        <v>4894.880126953125</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9781381312538596</v>
       </c>
       <c r="E30" t="n">
-        <v>24068.943359375</v>
+        <v>4894.625545726103</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9553571343421936</v>
       </c>
       <c r="C31" t="n">
-        <v>23591.5439453125</v>
+        <v>4745.478271484375</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9980681809512052</v>
+        <v>0.9810924354721519</v>
       </c>
       <c r="E31" t="n">
-        <v>23591.31303267046</v>
+        <v>4745.220961626838</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9748883843421936</v>
       </c>
       <c r="C32" t="n">
-        <v>23122.810546875</v>
+        <v>4600.1845703125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9898897058823529</v>
       </c>
       <c r="E32" t="n">
-        <v>23122.60955255682</v>
+        <v>4599.996696920956</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9620535671710968</v>
       </c>
       <c r="C33" t="n">
-        <v>22663.455078125</v>
+        <v>4459.16015625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.990340915593234</v>
+        <v>0.9850315136068007</v>
       </c>
       <c r="E33" t="n">
-        <v>22662.74698153409</v>
+        <v>4458.912425321691</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C34" t="n">
-        <v>22211.7451171875</v>
+        <v>4321.92626953125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9950000047683716</v>
+        <v>0.9897584038622239</v>
       </c>
       <c r="E34" t="n">
-        <v>22211.51740056818</v>
+        <v>4321.73250804228</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9547991156578064</v>
       </c>
       <c r="C35" t="n">
-        <v>21768.8857421875</v>
+        <v>4188.74951171875</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9697347704102012</v>
       </c>
       <c r="E35" t="n">
-        <v>21768.68856534091</v>
+        <v>4188.51815257353</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9925000071525574</v>
+        <v>0.9681919515132904</v>
       </c>
       <c r="C36" t="n">
-        <v>21334.4052734375</v>
+        <v>4059.06982421875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9985227259722623</v>
+        <v>0.9919905452167287</v>
       </c>
       <c r="E36" t="n">
-        <v>21334.25106534091</v>
+        <v>4058.908849379596</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9824999868869781</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C37" t="n">
-        <v>20908.1611328125</v>
+        <v>3933.205932617188</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9940257352941176</v>
       </c>
       <c r="E37" t="n">
-        <v>20907.95383522727</v>
+        <v>3933.034495634191</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9793526828289032</v>
       </c>
       <c r="C38" t="n">
-        <v>20489.8701171875</v>
+        <v>3810.912109375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9990909099578857</v>
+        <v>0.9889049354721519</v>
       </c>
       <c r="E38" t="n">
-        <v>20489.59872159091</v>
+        <v>3810.757683249081</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C39" t="n">
-        <v>20079.751953125</v>
+        <v>3692.133666992188</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9753151255495408</v>
       </c>
       <c r="E39" t="n">
-        <v>20079.21999289773</v>
+        <v>3691.957634420956</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9793526828289032</v>
       </c>
       <c r="C40" t="n">
-        <v>19676.83984375</v>
+        <v>3576.61328125</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9977272748947144</v>
+        <v>0.9861475825309753</v>
       </c>
       <c r="E40" t="n">
-        <v>19676.49378551136</v>
+        <v>3576.480080997243</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19281.7099609375</v>
+        <v>3464.49853515625</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9889705882352942</v>
       </c>
       <c r="E41" t="n">
-        <v>19281.38387784091</v>
+        <v>3464.313706341912</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9793526828289032</v>
       </c>
       <c r="C42" t="n">
-        <v>18893.828125</v>
+        <v>3355.508422851562</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9935661764705882</v>
       </c>
       <c r="E42" t="n">
-        <v>18893.65731534091</v>
+        <v>3355.362821691177</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9760044515132904</v>
       </c>
       <c r="C43" t="n">
-        <v>18513.5244140625</v>
+        <v>3249.688598632812</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.980173317825093</v>
       </c>
       <c r="E43" t="n">
-        <v>18513.29385653409</v>
+        <v>3249.581471162684</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.987500011920929</v>
+        <v>0.9631696343421936</v>
       </c>
       <c r="C44" t="n">
-        <v>18140.181640625</v>
+        <v>3146.967163085938</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9995454549789429</v>
+        <v>0.9648109253715066</v>
       </c>
       <c r="E44" t="n">
-        <v>18140.04190340909</v>
+        <v>3146.854291130515</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9754464328289032</v>
       </c>
       <c r="C45" t="n">
-        <v>17774.3232421875</v>
+        <v>3047.046630859375</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9954545497894287</v>
+        <v>0.9958639705882353</v>
       </c>
       <c r="E45" t="n">
-        <v>17773.90749289773</v>
+        <v>3046.928868910846</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9900000095367432</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C46" t="n">
-        <v>17414.818359375</v>
+        <v>2950.111083984375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9884453766486224</v>
       </c>
       <c r="E46" t="n">
-        <v>17414.65198863636</v>
+        <v>2949.995059742647</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9574999809265137</v>
+        <v>0.9670758843421936</v>
       </c>
       <c r="C47" t="n">
-        <v>17062.6279296875</v>
+        <v>2855.96630859375</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9948863658038053</v>
+        <v>0.9731486334520227</v>
       </c>
       <c r="E47" t="n">
-        <v>17062.21004971591</v>
+        <v>2855.894430721507</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9709821343421936</v>
       </c>
       <c r="C48" t="n">
-        <v>16716.603515625</v>
+        <v>2764.506958007812</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9957954558459196</v>
+        <v>0.9921875</v>
       </c>
       <c r="E48" t="n">
-        <v>16716.41477272727</v>
+        <v>2764.401209214154</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C49" t="n">
-        <v>16377.35205078125</v>
+        <v>2675.760009765625</v>
       </c>
       <c r="D49" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9892988450386945</v>
       </c>
       <c r="E49" t="n">
-        <v>16377.130859375</v>
+        <v>2675.640237247243</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9850000143051147</v>
+        <v>0.9754464328289032</v>
       </c>
       <c r="C50" t="n">
-        <v>16044.5029296875</v>
+        <v>2589.556518554688</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9986363649368286</v>
+        <v>0.9813550430185655</v>
       </c>
       <c r="E50" t="n">
-        <v>16044.30477627841</v>
+        <v>2589.481574563419</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,663 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9626116156578064</v>
       </c>
       <c r="C51" t="n">
-        <v>15717.93310546875</v>
+        <v>2505.881958007812</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0.9954044117647058</v>
       </c>
       <c r="E51" t="n">
-        <v>15717.79057173295</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15397.60400390625</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9985227259722623</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15397.51580255682</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C53" t="n">
-        <v>15083.64111328125</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9956818222999573</v>
-      </c>
-      <c r="E53" t="n">
-        <v>15083.32111150568</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14775.17041015625</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14775.04740767045</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14473.02685546875</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14472.70525568182</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14176.19140625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14176.05930397727</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13885.357421875</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9922727346420288</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13885.12127130682</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13599.837890625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13599.69060724432</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13319.97802734375</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13319.75355113636</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13045.38671875</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13045.10182883523</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12776.0576171875</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9943181872367859</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12775.74520596591</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12511.64013671875</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9968181848526001</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12511.49822443182</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12252.57275390625</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9962500008669767</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12252.31294389205</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.987500011920929</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11998.1826171875</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11998.11647727273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11749.0185546875</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9940909147262573</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11748.81338778409</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9825000166893005</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11504.30810546875</v>
-      </c>
-      <c r="D66" t="n">
-        <v>1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11504.25363991477</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11264.4912109375</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11264.42294034091</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C68" t="n">
-        <v>11029.29833984375</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9995454549789429</v>
-      </c>
-      <c r="E68" t="n">
-        <v>11029.18146306818</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9800000190734863</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10798.58837890625</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10798.48490767045</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10572.39794921875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10572.24564985795</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10350.43701171875</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10350.37056107955</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10132.87060546875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10132.78675426136</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9919.48681640625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9919.427734375</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9710.361328125</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9710.193093039772</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9505.1396484375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9505.000443892046</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9950000047683716</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9303.82861328125</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9990909099578857</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9303.798828125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9106.6494140625</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9106.55166903409</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8913.1298828125</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8913.089399857954</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8723.451171875</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8723.418678977272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8537.47900390625</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9980681809512052</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8537.4453125</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8355.146484375</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8355.11514559659</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2580645161290323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.8899521531100478</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.9043062200956937</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>2505.774701286765</v>
       </c>
     </row>
   </sheetData>
